--- a/dataDisplay/flaskapp/sums_models/calculation/sums.xlsx
+++ b/dataDisplay/flaskapp/sums_models/calculation/sums.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>规则抽取对应表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>研究生工作站（家）</t>
-  </si>
-  <si>
-    <t>院士工作站（家）</t>
   </si>
   <si>
     <t>省工程技术研究中心</t>
@@ -452,104 +449,122 @@
     <t>高新科,省创新型企业</t>
   </si>
   <si>
+    <t>高新科,国家重点新产品计划</t>
+  </si>
+  <si>
+    <t>高新科,国家自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,省高新技术产品</t>
+  </si>
+  <si>
+    <t>高新科,省自主创新产品</t>
+  </si>
+  <si>
+    <t>高新科,苏州高新技术产品</t>
+  </si>
+  <si>
+    <t>成果科,各级研发机构</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “863”“973”计划</t>
+  </si>
+  <si>
+    <t>国际科技合作项目</t>
+  </si>
+  <si>
+    <t>国家中小企业创新基金项目</t>
+  </si>
+  <si>
+    <t>国家科技重大专项</t>
+  </si>
+  <si>
+    <t>国家重点研发计划</t>
+  </si>
+  <si>
+    <t>火炬计划</t>
+  </si>
+  <si>
+    <t>星火计划</t>
+  </si>
+  <si>
+    <t>省科技成果转化专项</t>
+  </si>
+  <si>
+    <t>立项年份</t>
+  </si>
+  <si>
+    <t>立项时间</t>
+  </si>
+  <si>
+    <t>立项年度</t>
+  </si>
+  <si>
+    <t>列入国家级年度</t>
+  </si>
+  <si>
+    <t>高新科,国家863计划</t>
+  </si>
+  <si>
+    <t>合作科,国家级国际科技合作与交流专项</t>
+  </si>
+  <si>
+    <t>高新科,科技型中小企业技术创新基金项目</t>
+  </si>
+  <si>
+    <t>高新科,国家科技重大专项</t>
+  </si>
+  <si>
+    <t>高新科,国家火炬计划项目</t>
+  </si>
+  <si>
+    <t>农社科,国家星火计划</t>
+  </si>
+  <si>
+    <t>成果科,省成果</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大研发机构（企业研究院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%重点实验室%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新科,高新技术企业(08年以后)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高新科,省科技型中小企业</t>
-  </si>
-  <si>
-    <t>高新科,国家重点新产品计划</t>
-  </si>
-  <si>
-    <t>高新科,国家自主创新产品</t>
-  </si>
-  <si>
-    <t>高新科,省高新技术产品</t>
-  </si>
-  <si>
-    <t>高新科,省自主创新产品</t>
-  </si>
-  <si>
-    <t>高新科,苏州高新技术产品</t>
-  </si>
-  <si>
-    <t>成果科,各级研发机构</t>
-  </si>
-  <si>
-    <t>表7.项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “863”“973”计划</t>
-  </si>
-  <si>
-    <t>国际科技合作项目</t>
-  </si>
-  <si>
-    <t>国家中小企业创新基金项目</t>
-  </si>
-  <si>
-    <t>国家科技重大专项</t>
-  </si>
-  <si>
-    <t>国家重点研发计划</t>
-  </si>
-  <si>
-    <t>火炬计划</t>
-  </si>
-  <si>
-    <t>星火计划</t>
-  </si>
-  <si>
-    <t>省科技成果转化专项</t>
-  </si>
-  <si>
-    <t>立项年份</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>立项年度</t>
-  </si>
-  <si>
-    <t>列入国家级年度</t>
-  </si>
-  <si>
-    <t>高新科,国家863计划</t>
-  </si>
-  <si>
-    <t>合作科,国家级国际科技合作与交流专项</t>
-  </si>
-  <si>
-    <t>高新科,科技型中小企业技术创新基金项目</t>
-  </si>
-  <si>
-    <t>高新科,国家科技重大专项</t>
-  </si>
-  <si>
-    <t>高新科,国家火炬计划项目</t>
-  </si>
-  <si>
-    <t>农社科,国家星火计划</t>
-  </si>
-  <si>
-    <t>成果科,省成果</t>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重大研发机构（企业研究院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点实验室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%重点实验室%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高新科,高新技术企业(08年以后)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新科,江苏省民营科技企业年度统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表13.项目-当年统计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院士工作站（家）-苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院士工作站（家）-省级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,21 +974,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="4" customWidth="1"/>
     <col min="11" max="12" width="26.75" style="4" customWidth="1"/>
     <col min="13" max="13" width="23.625" style="4" customWidth="1"/>
@@ -1089,58 +1102,58 @@
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="X4" s="2"/>
     </row>
@@ -1224,19 +1237,19 @@
         <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>17</v>
@@ -1250,7 +1263,7 @@
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1271,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>17</v>
@@ -1297,7 +1310,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>42</v>
@@ -1311,7 +1324,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="6"/>
       <c r="R9" s="6"/>
@@ -1334,7 +1347,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -1362,70 +1375,76 @@
       <c r="H13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1454,12 +1473,15 @@
         <v>39</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1471,32 +1493,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I19" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1509,85 +1534,88 @@
       <c r="D23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="T23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>99</v>
+      <c r="G24" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
@@ -1597,89 +1625,90 @@
       <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="N25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>124</v>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1693,54 +1722,54 @@
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1748,25 +1777,25 @@
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1776,17 +1805,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
